--- a/pickle/rolling_corr_excel_target_index_MSCI World_simulation_term_type_2_window_size_24.xlsx
+++ b/pickle/rolling_corr_excel_target_index_MSCI World_simulation_term_type_2_window_size_24.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>MSCI World_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>MSCI World_CNY/USD</t>
   </si>
   <si>
-    <t>MSCI World_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>MSCI World_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>MSCI World_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>MSCI World_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>MSCI World_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI World_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_OECD 소비자물가</t>
   </si>
   <si>
-    <t>MSCI World_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>MSCI World_두바이유가</t>
   </si>
   <si>
-    <t>MSCI World_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI World_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>MSCI World_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>MSCI World_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>MSCI World_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>MSCI World_미국 REER</t>
   </si>
   <si>
-    <t>MSCI World_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>MSCI World_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>MSCI World_발틱 해운임지수</t>
   </si>
   <si>
-    <t>MSCI World_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>MSCI World_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>MSCI World_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI World_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>MSCI World_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>MSCI World_유로존 Core CPI</t>
   </si>
   <si>
-    <t>MSCI World_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>MSCI World_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>MSCI World_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>MSCI World_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>MSCI World_일본 ESI</t>
   </si>
   <si>
-    <t>MSCI World_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_일본 REER</t>
   </si>
   <si>
-    <t>MSCI World_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>MSCI World_중국 M1 YoY</t>
   </si>
   <si>
-    <t>MSCI World_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI World_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>MSCI World_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>MSCI World_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>MSCI World_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>MSCI World_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>MSCI World_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>MSCI World_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,924 +1893,774 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
@@ -2894,76 +2669,76 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
         <v>2</v>
       </c>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
       <c r="S3" t="n">
         <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD3" t="n">
         <v>2</v>
       </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF3" t="n">
         <v>3</v>
@@ -2972,37 +2747,37 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM3" t="n">
         <v>2</v>
       </c>
-      <c r="AK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
       <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="n">
         <v>2</v>
       </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
@@ -3011,103 +2786,103 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
         <v>2</v>
       </c>
-      <c r="AX3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
       <c r="BE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI3" t="n">
         <v>3</v>
       </c>
       <c r="BJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BY3" t="n">
         <v>2</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0</v>
       </c>
       <c r="BZ3" t="n">
         <v>2</v>
       </c>
       <c r="CA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB3" t="n">
         <v>0</v>
@@ -3116,178 +2891,178 @@
         <v>3</v>
       </c>
       <c r="CD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD3" t="n">
         <v>2</v>
       </c>
-      <c r="CE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>2</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>2</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>2</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>2</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>3</v>
-      </c>
       <c r="DE3" t="n">
         <v>3</v>
       </c>
       <c r="DF3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DG3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DK3" t="n">
         <v>2</v>
       </c>
       <c r="DL3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
         <v>2</v>
       </c>
       <c r="DO3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DQ3" t="n">
         <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
         <v>3</v>
       </c>
       <c r="DU3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DW3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DY3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
         <v>2</v>
       </c>
       <c r="EA3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EF3" t="n">
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EI3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
         <v>2</v>
@@ -3296,250 +3071,250 @@
         <v>2</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EN3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EO3" t="n">
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="ER3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" t="n">
         <v>2</v>
       </c>
-      <c r="ET3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU3" t="n">
+      <c r="EW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" t="n">
         <v>2</v>
       </c>
-      <c r="EV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW3" t="n">
+      <c r="FM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FO3" t="n">
         <v>2</v>
       </c>
-      <c r="EX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>2</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>3</v>
-      </c>
       <c r="FP3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FQ3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="FR3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FS3" t="n">
         <v>0</v>
       </c>
       <c r="FT3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FU3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV3" t="n">
         <v>3</v>
       </c>
       <c r="FW3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FX3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FY3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GA3" t="n">
         <v>2</v>
       </c>
       <c r="GB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT3" t="n">
         <v>2</v>
       </c>
-      <c r="GC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN3" t="n">
+      <c r="GU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HM3" t="n">
         <v>2</v>
       </c>
-      <c r="GO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>0</v>
-      </c>
       <c r="HN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HO3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="HP3" t="n">
         <v>0</v>
@@ -3548,25 +3323,25 @@
         <v>0</v>
       </c>
       <c r="HR3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="HS3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HT3" t="n">
         <v>3</v>
       </c>
       <c r="HU3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HV3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HW3" t="n">
         <v>3</v>
       </c>
       <c r="HX3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="HY3" t="n">
         <v>3</v>
@@ -3575,7 +3350,7 @@
         <v>3</v>
       </c>
       <c r="IA3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="IB3" t="n">
         <v>3</v>
@@ -3584,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="ID3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="IE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IF3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="IG3" t="n">
         <v>3</v>
@@ -3602,10 +3377,10 @@
         <v>3</v>
       </c>
       <c r="IJ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IK3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IL3" t="n">
         <v>2</v>
@@ -3614,915 +3389,765 @@
         <v>0</v>
       </c>
       <c r="IN3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="IO3" t="n">
         <v>0</v>
       </c>
       <c r="IP3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:275">
+    <row r="4" spans="1:250">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9550425908053466</v>
+        <v>-0.9515455667229492</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9364588608164516</v>
+        <v>0.9599642923430913</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9385757303891086</v>
+        <v>0.7153824277915206</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8592231626724821</v>
+        <v>0.8268389400320769</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6392240796841429</v>
+        <v>0.3782881942551654</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.5235579690783996</v>
+        <v>-0.7032642593408696</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9822341505674209</v>
+        <v>0.9487570684177666</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9512497784958874</v>
+        <v>0.9060021295297405</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9568406663799409</v>
+        <v>0.511768712947378</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9750175979306092</v>
+        <v>-0.2170369536241059</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9628026155907564</v>
+        <v>0.2746221313967219</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8957469242227599</v>
+        <v>0.9592547334419619</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9664289352214201</v>
+        <v>-0.7496285312448027</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9171379952655165</v>
+        <v>0.9623412675438449</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3622862225905373</v>
+        <v>0.9678631521064123</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4963805464659234</v>
+        <v>0.9100990466591673</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.813062981131327</v>
+        <v>0.4995610992250053</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9553591295274315</v>
+        <v>0.6748382325010036</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.8254405919169859</v>
+        <v>-0.5917921869700727</v>
       </c>
       <c r="U4" t="n">
-        <v>0.953714431778091</v>
+        <v>0.8375178414511203</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9651070623372967</v>
+        <v>0.4143578430150798</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9077429709259214</v>
+        <v>0.8760912121536966</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4634082362043715</v>
+        <v>0.7692139705488606</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6409417480017677</v>
+        <v>-0.4796026160622485</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.5922583700241352</v>
+        <v>0.8661273793009325</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8800627422430066</v>
+        <v>0.6727508719214148</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.8096842171028212</v>
+        <v>0.8557215457386826</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.9107902762060415</v>
+        <v>0.4553427104505722</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8252467836876742</v>
+        <v>0.9097352768344165</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.2734642988268848</v>
+        <v>0.7345063761290216</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.9380704112267668</v>
+        <v>0.8253976618277864</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.6688018647488663</v>
+        <v>0.5626744130138082</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.8988447616990974</v>
+        <v>0.455019116296395</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.5353319595778742</v>
+        <v>0.9392983538213977</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.9340940703663351</v>
+        <v>-0.1850474177535392</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.7478462906376504</v>
+        <v>0.9177795921507813</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.7619396757074488</v>
+        <v>-0.1663917164378219</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.6799725131421365</v>
+        <v>-0.868399565193835</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.4629422172015158</v>
+        <v>-0.6910534773760054</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9650457346042772</v>
+        <v>0.9423494650084743</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.4332953587587092</v>
+        <v>-0.1518229968430005</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9379235665643347</v>
+        <v>-0.7312381094770338</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.3876926452860777</v>
+        <v>-0.4131635081229995</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.8386493808907703</v>
+        <v>0.9722134131063968</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.7053496542207253</v>
+        <v>0.9989315234238431</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9554682446970597</v>
+        <v>0.9971957821216382</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.07030886725879897</v>
+        <v>0.9638796120052783</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.7935381345179141</v>
+        <v>0.9530820829672507</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.6396193396136738</v>
+        <v>0.9724608966182224</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.9874006336387746</v>
+        <v>1</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.999634400266566</v>
+        <v>0.9935967167097117</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.9949711700628453</v>
+        <v>0.9780954086419587</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.9801887640420874</v>
+        <v>0.9616731687248288</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.9850135691343059</v>
+        <v>0.8806886408586745</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.9877097910997853</v>
+        <v>0.7734436160221194</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.2990796075509147</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.992086911743623</v>
+        <v>0.8292662589152662</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.9895161133256301</v>
+        <v>-0.4572358509958153</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.9550409053160096</v>
+        <v>0.7324521794064273</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.9185332909199838</v>
+        <v>-0.2059014164720526</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.837009590624448</v>
+        <v>0.8647679839414255</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.6274429108701367</v>
+        <v>0.8808608742238063</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.5159294445561303</v>
+        <v>-0.4042828923243699</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.9116275462612646</v>
+        <v>-0.8091490212461409</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.8649661101832533</v>
+        <v>0.9932462073026324</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.9698346032154291</v>
+        <v>0.8620402662637043</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.5084342684027531</v>
+        <v>0.9788407942952896</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.8004437585967284</v>
+        <v>0.1779802967055573</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.2721259669084364</v>
+        <v>0.9583579140105167</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.8680968225171156</v>
+        <v>0.8988412969182037</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.8950285368562575</v>
+        <v>0.4514526228262442</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.424748247900688</v>
+        <v>0.9064146975605674</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.7896537772173379</v>
+        <v>0.9004377862630206</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.9964193582290315</v>
+        <v>0.9147308091548565</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.9093548699633601</v>
+        <v>-0.5895662749168765</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.9856148940957654</v>
+        <v>-0.5100404782272766</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.774791570329996</v>
+        <v>0.8298022364555594</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.9734473779112707</v>
+        <v>0.9672627997136684</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.909604360053001</v>
+        <v>0.9015784138350987</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.8593117703262738</v>
+        <v>0.8564900217561374</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.9604053749917053</v>
+        <v>0.4234565182280777</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.9291341279810238</v>
+        <v>0.5375378638921234</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.9560502798447523</v>
+        <v>0.8457003268705762</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.8926840014991555</v>
+        <v>0.1238990517194447</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.7303462749093795</v>
+        <v>0.7720661977562863</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.7894969580342375</v>
+        <v>0.3677426172396359</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.9619688092770534</v>
+        <v>-0.4913284541971469</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.880479279688816</v>
+        <v>0.5695814073374629</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.9014155943715807</v>
+        <v>-0.4987476235191223</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.6321240227557958</v>
+        <v>0.4644685773946304</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.6587798498995495</v>
+        <v>0.9514859082670271</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.7845303108464941</v>
+        <v>-0.4239897797883301</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.7547358856638754</v>
+        <v>0.9313264780090068</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.7727390157944247</v>
+        <v>0.9436435399190191</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.6879571018256924</v>
+        <v>-0.4968225308999012</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.214862562038938</v>
+        <v>0.938698429638371</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.7253410601848184</v>
+        <v>0.4587067952423239</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0.1532290092325123</v>
+        <v>0.8755936002098179</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.720089330974508</v>
+        <v>0.844511923220626</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.9708191659099614</v>
+        <v>0.8713706721475745</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.1966467315587338</v>
+        <v>0.8566262856087729</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.928813195642517</v>
+        <v>-0.7948910348885898</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.9789304786377763</v>
+        <v>0.7940723212249462</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.3006548456070262</v>
+        <v>0.8444473024688028</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.9545525139201514</v>
+        <v>0.940772299612568</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.3315914048477655</v>
+        <v>0.48951985071586</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.8881428360697176</v>
+        <v>0.5423461890560412</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.892529614349311</v>
+        <v>0.7022541693698636</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.8750185572650808</v>
+        <v>0.4256865320835836</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.9453057462794465</v>
+        <v>0.8374213189196719</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.6516507837839075</v>
+        <v>-0.3260795676138183</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.7442346187162312</v>
+        <v>0.6835497897500011</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.804399122006921</v>
+        <v>-0.7400247916182681</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.9437798826704566</v>
+        <v>0.3116126135388084</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.5444840759407901</v>
+        <v>-0.7833233896890012</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.7091770996198511</v>
+        <v>-0.9684748682415942</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.7434113447948312</v>
+        <v>0.7286327291266602</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.112018727291925</v>
+        <v>0.2767644167276486</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.8678157669040899</v>
+        <v>-0.5338681447645898</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.8294138153428496</v>
+        <v>0.9514859082670271</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.805030333581183</v>
+        <v>0.9446965060523744</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.2126794208448657</v>
+        <v>0.9741921375625748</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.716188745906034</v>
+        <v>0.7950683961572665</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.8590967315137327</v>
+        <v>0.8943366457665833</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.3978479768493582</v>
+        <v>0.6499942370543366</v>
       </c>
       <c r="DW4" t="n">
-        <v>-0.5035317365872406</v>
+        <v>0.7552486106229591</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.9574904116017068</v>
+        <v>-0.9283330162354925</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.8050303550353347</v>
+        <v>0.9789697692830092</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.947455644581462</v>
+        <v>0.771934733229793</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.2783955651960393</v>
+        <v>0.9639457579043016</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.5898808383285264</v>
+        <v>0.9374200093577444</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.961470670762391</v>
+        <v>0.4588550973918396</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.9708191659099614</v>
+        <v>-0.6779892646061266</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.9697887640563868</v>
+        <v>-0.2584315172707013</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.9782407540169977</v>
+        <v>0.1279380089472901</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.7647107290758595</v>
+        <v>0.8782549043127778</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.9360770017458915</v>
+        <v>0.9403790724467134</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.5500412894878067</v>
+        <v>0.7298754446793329</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.9423581615777907</v>
+        <v>0.8311640610931535</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.967296808492224</v>
+        <v>0.9318380732590124</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.9924266892939472</v>
+        <v>0.8470631578800971</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.73707704072092</v>
+        <v>0.7557947360982421</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.9705132927227129</v>
+        <v>0.8502606784809124</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.9418943208343936</v>
+        <v>-0.9529702841704329</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.5315808379928442</v>
+        <v>0.9345338517047006</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.8238983601835687</v>
+        <v>0.1214305063270935</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.735183207830312</v>
+        <v>0.8790072692167353</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.1604404822801072</v>
+        <v>-0.8951684675946493</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.9335631006890277</v>
+        <v>-0.8777137264149524</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.9507489548878046</v>
+        <v>-0.9490621030650751</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.6766042597162253</v>
+        <v>0.7228288100608414</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.8440201489508651</v>
+        <v>0.7641455230618843</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.9356736017852511</v>
+        <v>0.8232985908049627</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.8397469190059835</v>
+        <v>-0.5602707041866848</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.8119298078487048</v>
+        <v>0.7783033521179655</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.8602322362945111</v>
+        <v>0.5944135625387379</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.9584319391353224</v>
+        <v>-0.8208718227816877</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.9674053597334984</v>
+        <v>-0.2170369536241059</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.1158449181361445</v>
+        <v>0.8393082195272384</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.9045018868696992</v>
+        <v>0.8188738737642288</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.8636856369806916</v>
+        <v>0.3403269176019347</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.9063359090463774</v>
+        <v>-0.6968088039553586</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.9464105268389542</v>
+        <v>0.7176154398851522</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.7302270175282124</v>
+        <v>-0.1813884716223497</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.7825562967231746</v>
+        <v>0.07178365628055337</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.8746882322290157</v>
+        <v>-0.4579701458238389</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.9637841987341861</v>
+        <v>0.2513381925054575</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.5196480644142304</v>
+        <v>0.9635263259572608</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.8811745208200424</v>
+        <v>0.8890102884530385</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.8254687398858319</v>
+        <v>-0.6457813546627292</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.8789555279821752</v>
+        <v>-0.9068302914192686</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.4963805464659234</v>
+        <v>0.8799315341260991</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.9303225884988449</v>
+        <v>0.4516454043166755</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.8792157351427459</v>
+        <v>-0.4057071247257173</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.484147723094091</v>
+        <v>0.8218083343644639</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0.6744539507867015</v>
+        <v>0.9635263259572608</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.8194446775018316</v>
+        <v>0.5787296397772687</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.1347489947553138</v>
+        <v>0.7737211559707354</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.2470009384457886</v>
+        <v>0.7857312500740479</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.385871917806912</v>
+        <v>-0.3321647868927837</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.9363967162659337</v>
+        <v>-0.3377820595217614</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.7756897373048705</v>
+        <v>-0.9043325495018745</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.3828884836228446</v>
+        <v>0.5396143831260628</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.9644201144846342</v>
+        <v>0.6648701093629008</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.9116333285755248</v>
+        <v>0.1706148023330321</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.5816022379071148</v>
+        <v>0.9191394744190919</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.8915400255144766</v>
+        <v>0.9294105787503261</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.9097187312877022</v>
+        <v>0.4592466254267824</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.518070695449461</v>
+        <v>0.9432878715546478</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.906774168236317</v>
+        <v>-0.7214157986715609</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.6941440717999865</v>
+        <v>0</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.7179042037006276</v>
+        <v>0.08294822532210538</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.9644201144846342</v>
+        <v>0.2943273039793829</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.6452544637699063</v>
+        <v>0.9716815300561981</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.8835786618988145</v>
+        <v>0.7951627426283122</v>
       </c>
       <c r="GO4" t="n">
-        <v>0.7429961720458902</v>
+        <v>0.500518327622446</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.8611784144162978</v>
+        <v>-0.3731029779625579</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.7000651100327209</v>
+        <v>0</v>
       </c>
       <c r="GR4" t="n">
-        <v>-0.2992453773082362</v>
+        <v>0</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.9286260172278625</v>
+        <v>0.6415981215649283</v>
       </c>
       <c r="GT4" t="n">
-        <v>-0.8099342792187637</v>
+        <v>0.637409129645936</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.856329481568594</v>
+        <v>0</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.7969097268651536</v>
+        <v>0.34397894968139</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.758740777555123</v>
+        <v>0.2478046741919144</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.3848632433805229</v>
+        <v>0.4978367653775305</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.9276969731541765</v>
+        <v>0.544409965014785</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.9356012574357447</v>
+        <v>-0.4718884981181509</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.39828384600585</v>
+        <v>0.6951598403436183</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.9298524890580302</v>
+        <v>0.4563836105538513</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.763142801363232</v>
+        <v>-0.3512427762934907</v>
       </c>
       <c r="HD4" t="n">
-        <v>0</v>
+        <v>-0.8080646613655121</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.3804615020137624</v>
+        <v>0.3214996715304305</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.2977867989280524</v>
+        <v>-0.5872111485444685</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.951475795917095</v>
+        <v>0.5393904668991298</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.8959933743272297</v>
+        <v>0.9688935711747395</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.9018523893853733</v>
+        <v>-0.8568203186820993</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.6364329755525557</v>
+        <v>-0.2620565457942719</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.5935221750268379</v>
+        <v>0.8123997775991814</v>
       </c>
       <c r="HL4" t="n">
-        <v>0</v>
+        <v>0.6555924010181258</v>
       </c>
       <c r="HM4" t="n">
-        <v>0</v>
+        <v>0.8038646978669575</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.7462346896184445</v>
+        <v>-0.1288116060892275</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.7263556809016333</v>
+        <v>-0.2904882134283826</v>
       </c>
       <c r="HP4" t="n">
-        <v>0</v>
+        <v>-0.3969559957225433</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.3113825113572389</v>
+        <v>0.09239064752736206</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.4664504401727908</v>
+        <v>-0.6390171634237257</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.4413980691972652</v>
+        <v>0.9406675105092772</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.7641719306362001</v>
+        <v>-0.3694600898781841</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.507418324628268</v>
+        <v>0.5052259090874572</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.9147777622206938</v>
+        <v>0.3244325105697069</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.9117202387778097</v>
+        <v>0.6462591792813752</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.928024658959842</v>
+        <v>0.5520455627510958</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.4605866089095481</v>
+        <v>0.5068688842148459</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.8633739113595268</v>
+        <v>-0.4510081663930632</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.582438043754379</v>
+        <v>-0.5195119716485352</v>
       </c>
       <c r="IB4" t="n">
-        <v>-0.3826256382791049</v>
+        <v>-0.2413226463566558</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.7249166701702909</v>
+        <v>-0.7367668831207341</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.674142868503065</v>
+        <v>-0.8611847541959783</v>
       </c>
       <c r="IE4" t="n">
-        <v>-0.3864934773499272</v>
+        <v>0.7762737651744182</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.7953717613064126</v>
+        <v>-0.0966493971930603</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.9750684155847653</v>
+        <v>-0.7898637648663971</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.8074147473222228</v>
+        <v>-0.6468264543361175</v>
       </c>
       <c r="II4" t="n">
-        <v>0.4970000395266498</v>
+        <v>0.7762737651744182</v>
       </c>
       <c r="IJ4" t="n">
-        <v>0.4379969676571401</v>
+        <v>0.7004512048313462</v>
       </c>
       <c r="IK4" t="n">
-        <v>-0.4387021774260461</v>
+        <v>-0.224258764262271</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.8347302615539669</v>
+        <v>0.3844022160881195</v>
       </c>
       <c r="IM4" t="n">
-        <v>-0.2100696708714772</v>
+        <v>-0.5680575693488215</v>
       </c>
       <c r="IN4" t="n">
-        <v>0.116888004685915</v>
+        <v>-0.768265009258387</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.4669254278663758</v>
+        <v>0.9154765863793922</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.2171437023998526</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.7915515120265334</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.9553958928646948</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.4281353608422481</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.7336410732892643</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.5807754094948823</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.7809875752102723</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.7884683204457891</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.7654284087859928</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>-0.5414240807738605</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.5587596900135166</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.1128817764246531</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>-0.6971635036298671</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.8286080751881449</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.8301099784288777</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.2192051229210979</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.8868069013581221</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.6009503189340395</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.8301099784288777</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.8167736630680003</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>-0.3745708942226531</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.38554727040232</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>-0.3599672126616377</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.8174304827141858</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.9675220343354619</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.8998566186609063</v>
+        <v>0.8437615535236231</v>
       </c>
     </row>
   </sheetData>
